--- a/connectivity_matrix.xlsx
+++ b/connectivity_matrix.xlsx
@@ -1,35 +1,304 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C24654C-C735-484B-A2A0-FB6A54AFE375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="device_to_device" sheetId="1" r:id="rId1"/>
+    <sheet name="device_to_energy_input" sheetId="2" r:id="rId2"/>
+    <sheet name="device_to_energy_output" sheetId="3" r:id="rId3"/>
+    <sheet name="device_to_base_class" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="72">
+  <si>
+    <t>device intput\device output</t>
+  </si>
+  <si>
+    <t>dieselEngine</t>
+  </si>
+  <si>
+    <t>photoVoltaic</t>
+  </si>
+  <si>
+    <t>batteryEnergyStorageSystem</t>
+  </si>
+  <si>
+    <t>troughPhotoThermal</t>
+  </si>
+  <si>
+    <t>electricSteamGenerator</t>
+  </si>
+  <si>
+    <t>combinedHeatAndPower</t>
+  </si>
+  <si>
+    <t>gasBoiler</t>
+  </si>
+  <si>
+    <t>steamAndWater_exchanger</t>
+  </si>
+  <si>
+    <t>steamPowered_LiBr</t>
+  </si>
+  <si>
+    <t>platePhotothermal</t>
+  </si>
+  <si>
+    <t>phaseChangeHeatStorage</t>
+  </si>
+  <si>
+    <t>municipalHotWater</t>
+  </si>
+  <si>
+    <t>hotWaterElectricBoiler</t>
+  </si>
+  <si>
+    <t>gasBoiler_hotWater</t>
+  </si>
+  <si>
+    <t>waterStorageTank</t>
+  </si>
+  <si>
+    <t>municipalSteam</t>
+  </si>
+  <si>
+    <t>hotWaterLiBr</t>
+  </si>
+  <si>
+    <t>hotWaterExchanger</t>
+  </si>
+  <si>
+    <t>heatPump</t>
+  </si>
+  <si>
+    <t>waterSourceHeatPumps</t>
+  </si>
+  <si>
+    <t>waterCoolingSpiralMachine</t>
+  </si>
+  <si>
+    <t>tripleWorkingConditionUnit</t>
+  </si>
+  <si>
+    <t>doubleWorkingConditionUnit</t>
+  </si>
+  <si>
+    <t>groundSourceHeatPump</t>
+  </si>
+  <si>
+    <t>iceStorage</t>
+  </si>
+  <si>
+    <t>phaseChangeRefrigerantStorage</t>
+  </si>
+  <si>
+    <t>lowphaseChangeHeatStorage</t>
+  </si>
+  <si>
+    <t>gridNet</t>
+  </si>
+  <si>
+    <t>device\energy input</t>
+  </si>
+  <si>
+    <t>cold_water</t>
+  </si>
+  <si>
+    <t>cold_water_storage</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>warm_water</t>
+  </si>
+  <si>
+    <t>warm_water_storage</t>
+  </si>
+  <si>
+    <t>hot_water</t>
+  </si>
+  <si>
+    <t>hot_water_storage</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>electricity_storage</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>steam_storage</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>device\energy output</t>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam，electricity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_water</t>
+  </si>
+  <si>
+    <t>cool_water,warm_water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhotoVoltaic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiBrRefrigeration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DieselEngine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyStorageSystem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyStorageSystemVariable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroughPhotoThermal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombinedHeatAndPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasBoiler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricBoiler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchanger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirHeatPump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterHeatPump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterCoolingSpiral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleWorkingConditionUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripleWorkingConditionUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeothermalHeatPump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterEnergyStorage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricSteamGenerator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitySupply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridNet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device\base class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>municipalHotWater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -56,8 +325,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -69,6 +347,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,45 +641,1666 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="23.5546875" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" customWidth="1"/>
+    <col min="22" max="22" width="26.21875" customWidth="1"/>
+    <col min="23" max="23" width="29.44140625" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" customWidth="1"/>
+    <col min="25" max="25" width="24.44140625" customWidth="1"/>
+    <col min="26" max="26" width="17" customWidth="1"/>
+    <col min="27" max="27" width="31.109375" customWidth="1"/>
+    <col min="28" max="28" width="27.21875" customWidth="1"/>
+    <col min="29" max="29" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="61.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 T2:U15 W2:W15 U17:U19 W17:W19 U28:U29 B2:F29 G7:G29 W28:X29 X2:X25 W23:W25 Y2:AC29 X27 V2:V29 U23:U26 H2:S29 T17:T20 T22:T29" xr:uid="{4BC07C12-874A-45A5-AE35-50E78FB66DC0}">
+      <formula1>"electricity,cool_water,warm_water,hot_water,steam"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>